--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\ProjectB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy Rodan\Desktop\Technion\Semsster 9\Project B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE7B7C-D9C0-4020-B95D-75936260C40A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60131971-11DA-407F-BA1D-77F483DF600D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>AlexNet</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Val loss</t>
   </si>
   <si>
-    <t>DS1, 25 epoch</t>
-  </si>
-  <si>
     <t>Train loss</t>
   </si>
   <si>
@@ -57,18 +54,12 @@
     <t>Test accuracy</t>
   </si>
   <si>
-    <t>DS2, 25 epochs</t>
-  </si>
-  <si>
     <t>DS3, 25 epochs</t>
   </si>
   <si>
     <t>Normal run - No DCN</t>
   </si>
   <si>
-    <t>DCN - Model 1</t>
-  </si>
-  <si>
     <t>DCN - Model 2</t>
   </si>
   <si>
@@ -103,6 +94,12 @@
   </si>
   <si>
     <t>EDVR</t>
+  </si>
+  <si>
+    <t>DS2, 50 epochs</t>
+  </si>
+  <si>
+    <t>DS1, 50 epoch</t>
   </si>
 </sst>
 </file>
@@ -143,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +191,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -232,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -250,6 +241,12 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,22 +256,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,74 +542,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:U23"/>
+  <dimension ref="C2:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="61" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="15.5546875" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="15.54296875" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="3:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="3:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>4</v>
@@ -633,13 +618,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>4</v>
@@ -648,13 +633,13 @@
         <v>5</v>
       </c>
       <c r="L4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>4</v>
@@ -663,19 +648,19 @@
         <v>5</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -694,24 +679,34 @@
       <c r="H5" s="8">
         <v>72.913117546848298</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
+      <c r="I5" s="5">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.80659999999999998</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="M5" s="7">
+        <v>80.596100000000007</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="4"/>
       <c r="T5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -730,24 +725,34 @@
       <c r="H6" s="8">
         <v>95.655877342419004</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
+      <c r="I6" s="5">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="M6" s="7">
+        <v>82.344499999999996</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="4"/>
       <c r="T6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -767,340 +772,214 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="4"/>
       <c r="T7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D12" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="H14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="L14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="N14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="R14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.113</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="H14" s="8">
-        <v>95.144804088586</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
+      <c r="D15" s="5">
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.7298</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.5494</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="H15" s="7">
+        <v>72.9131</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.80785700000000005</v>
+      </c>
+      <c r="M15" s="7">
+        <v>80.854100000000003</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="18" spans="3:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+      <c r="D16" s="5">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.9153</v>
+      </c>
+      <c r="H16" s="7">
+        <v>89.778499999999994</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.42780000000000001</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.42680000000000001</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="M16" s="7">
+        <v>80.3095</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="8">
     <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="N13:R13"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D18:R18"/>
+    <mergeCell ref="D12:R12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
